--- a/data/trans_dic/P36$huevo-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$huevo-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01711109238986496</v>
+        <v>0.01600102100258949</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02222345698873087</v>
+        <v>0.02032886032718557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04900214144762915</v>
+        <v>0.05009257845859436</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003724299276281853</v>
+        <v>0.003409778106243349</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009182448736156078</v>
+        <v>0.009425120445551615</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0381090483494406</v>
+        <v>0.03716992025014021</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01475748191136551</v>
+        <v>0.01348403342874199</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01950280529523269</v>
+        <v>0.01814370995533011</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0517596902441189</v>
+        <v>0.05079598414204015</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05466474113597054</v>
+        <v>0.05188076194686972</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05820866411997658</v>
+        <v>0.0561843288938127</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09989904834320565</v>
+        <v>0.09997923931620496</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03499883486315458</v>
+        <v>0.03632638175329841</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04742747468592261</v>
+        <v>0.04699662496072003</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0915920895391254</v>
+        <v>0.09151534036676209</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03874533586194809</v>
+        <v>0.03893481359160455</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04706715836686187</v>
+        <v>0.04548922933444025</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08934628610176228</v>
+        <v>0.08728730593123349</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007384120285119676</v>
+        <v>0.008025933912100091</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02162681387460403</v>
+        <v>0.02262636678709875</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05687779495270859</v>
+        <v>0.05353548424374335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01597515559096796</v>
+        <v>0.01531732047683455</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008191982812463101</v>
+        <v>0.005597846869148313</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04462984562327795</v>
+        <v>0.04379311203614456</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01422196432215206</v>
+        <v>0.01453632404409711</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01881931786782585</v>
+        <v>0.01804766013188271</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05567379146025462</v>
+        <v>0.05599482867666666</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03957395404852133</v>
+        <v>0.04083378478148524</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06459061131986264</v>
+        <v>0.06848121085899415</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1145222352217937</v>
+        <v>0.1109423531237748</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05687998517644452</v>
+        <v>0.05393243951203442</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04527451402247958</v>
+        <v>0.04235836567304899</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09672161101070878</v>
+        <v>0.09809844470665725</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04075054132132092</v>
+        <v>0.03975210294521402</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04775185577647184</v>
+        <v>0.04813926614096602</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09565843069021236</v>
+        <v>0.09693595315330217</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01730565983375225</v>
+        <v>0.01853090107309325</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0368662775501002</v>
+        <v>0.03841371819233163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.049011274615469</v>
+        <v>0.05019055769793229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01352866780009832</v>
+        <v>0.01834959216128408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01435895330418077</v>
+        <v>0.01546313981115517</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02583819814572343</v>
+        <v>0.02831847467702216</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0215738924959599</v>
+        <v>0.02095472914142511</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03403372461906433</v>
+        <v>0.03319350918758542</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04947502393708842</v>
+        <v>0.05036310822011192</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04914283391474588</v>
+        <v>0.04904695797638615</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07296687392478057</v>
+        <v>0.07117777214147634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09678654355806117</v>
+        <v>0.09477381378262675</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07713617651722487</v>
+        <v>0.07755181354023068</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06164436560168152</v>
+        <v>0.05664601358180333</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1064223040423926</v>
+        <v>0.1055326165033059</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04877878386543898</v>
+        <v>0.04710872960498666</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06097106131172159</v>
+        <v>0.06170159204885491</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08843047807688327</v>
+        <v>0.089841533652517</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02583044818091471</v>
+        <v>0.02482229462851029</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02476492422102754</v>
+        <v>0.02487519280447504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06144943590072883</v>
+        <v>0.06065430472508904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01348562446976914</v>
+        <v>0.01312168988454241</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02019212809666838</v>
+        <v>0.02166057312489665</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06406801258442499</v>
+        <v>0.06267537118026713</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02296575504846161</v>
+        <v>0.02311618392113809</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0258897931996351</v>
+        <v>0.02621217635307281</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06736277061496564</v>
+        <v>0.06742964897224478</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04692103229553397</v>
+        <v>0.04720110937485349</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04643168711000663</v>
+        <v>0.04555768381276369</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09329089875232095</v>
+        <v>0.09365371371226772</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03555207960557573</v>
+        <v>0.03512397892677637</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04959176928312339</v>
+        <v>0.04959325051858938</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1034087084545552</v>
+        <v>0.103529573377098</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03839279807180672</v>
+        <v>0.03889175366574046</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04183319593955107</v>
+        <v>0.04291793547719899</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09225154222216597</v>
+        <v>0.09198255397772927</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04430368789291449</v>
+        <v>0.0415226562893116</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0358774244333627</v>
+        <v>0.03580003581131418</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05286540883485543</v>
+        <v>0.0514482282141962</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009861229489577948</v>
+        <v>0.009375232592852799</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.005686822933416751</v>
+        <v>0.005567340960412503</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04162900559707665</v>
+        <v>0.04188415136562505</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02631611008880999</v>
+        <v>0.02602056272986729</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0204424521898796</v>
+        <v>0.02056535634164992</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05079940956465181</v>
+        <v>0.05251144912787452</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1018908551677392</v>
+        <v>0.1030522393171519</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07746393476801708</v>
+        <v>0.07711897976884681</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09267338114822386</v>
+        <v>0.09322035789087912</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03692105711887078</v>
+        <v>0.03622669024798908</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02243691528947474</v>
+        <v>0.02234048147736029</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07965101538258092</v>
+        <v>0.07922314076036216</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05330923145812069</v>
+        <v>0.05392763798869889</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03960732189728458</v>
+        <v>0.0392228999795675</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07726598725420655</v>
+        <v>0.07841777076911614</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02296945335026096</v>
+        <v>0.02233594234090315</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02484832638043361</v>
+        <v>0.02497488964025955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04053350258904037</v>
+        <v>0.04038380203572206</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01129489446776702</v>
+        <v>0.01134457711998912</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01550843541098991</v>
+        <v>0.01562376377723603</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03203207479553771</v>
+        <v>0.03251027591058667</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01584819717449694</v>
+        <v>0.01565618367884743</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01865539365190899</v>
+        <v>0.01984428852119064</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.038465706961938</v>
+        <v>0.03873902668185054</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06871480401557434</v>
+        <v>0.06901605151984004</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07145658682355421</v>
+        <v>0.07771361611635476</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1022169737152448</v>
+        <v>0.09967404968463564</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02561086649645283</v>
+        <v>0.02637418955687997</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03620427201411805</v>
+        <v>0.03692554959325647</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05779167339938118</v>
+        <v>0.05780564166948651</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03026003843521278</v>
+        <v>0.03178771034487437</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03805781085671213</v>
+        <v>0.03831972947369757</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06289561158333745</v>
+        <v>0.06278587809398324</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02977636827111301</v>
+        <v>0.02975843081893506</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03558295193638527</v>
+        <v>0.03547206489892748</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06432737391072617</v>
+        <v>0.06570260955208239</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01674495179205986</v>
+        <v>0.01604368882936402</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01829398091513892</v>
+        <v>0.01862579928365613</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05270192502532255</v>
+        <v>0.05221448394805677</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02468635672226647</v>
+        <v>0.02440225777544793</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02829177844006162</v>
+        <v>0.02847442128938813</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06152743089379249</v>
+        <v>0.06134729006069687</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04318825875941745</v>
+        <v>0.04371376090921177</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04828551404816431</v>
+        <v>0.04871005499783962</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08319287435339513</v>
+        <v>0.08442884248089619</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02597657957353073</v>
+        <v>0.0260586175696034</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02904794547795216</v>
+        <v>0.02917501101881583</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06897299842679319</v>
+        <v>0.06942481027403749</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03314664453485704</v>
+        <v>0.03270606073195998</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03725539047195672</v>
+        <v>0.03686899990973365</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07402822717153879</v>
+        <v>0.07385597201904788</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8091</v>
+        <v>7567</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9716</v>
+        <v>8888</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21026</v>
+        <v>21494</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1142</v>
+        <v>1046</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2877</v>
+        <v>2953</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13226</v>
+        <v>12900</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11504</v>
+        <v>10512</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14637</v>
+        <v>13617</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>40173</v>
+        <v>39425</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25850</v>
+        <v>24533</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25449</v>
+        <v>24564</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42866</v>
+        <v>42900</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10733</v>
+        <v>11141</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14859</v>
+        <v>14724</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>31787</v>
+        <v>31761</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30204</v>
+        <v>30352</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>35324</v>
+        <v>34140</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>69346</v>
+        <v>67748</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2696</v>
+        <v>2931</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9013</v>
+        <v>9430</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21456</v>
+        <v>20195</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5923</v>
+        <v>5680</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2769</v>
+        <v>1892</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16565</v>
+        <v>16254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10467</v>
+        <v>10698</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14204</v>
+        <v>13622</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>41666</v>
+        <v>41906</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14451</v>
+        <v>14911</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26919</v>
+        <v>28541</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43201</v>
+        <v>41850</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21091</v>
+        <v>19998</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15303</v>
+        <v>14318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35899</v>
+        <v>36410</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29991</v>
+        <v>29256</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36042</v>
+        <v>36335</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>71590</v>
+        <v>72546</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9352</v>
+        <v>10014</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23135</v>
+        <v>24106</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25526</v>
+        <v>26140</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2270</v>
+        <v>3079</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3735</v>
+        <v>4022</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4292</v>
+        <v>4704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15278</v>
+        <v>14839</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30211</v>
+        <v>29465</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>33986</v>
+        <v>34596</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26555</v>
+        <v>26504</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45790</v>
+        <v>44667</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50407</v>
+        <v>49359</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12942</v>
+        <v>13012</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16035</v>
+        <v>14735</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17679</v>
+        <v>17531</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34543</v>
+        <v>33360</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>54122</v>
+        <v>54771</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>60746</v>
+        <v>61715</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>31934</v>
+        <v>30688</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28676</v>
+        <v>28804</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>70578</v>
+        <v>69665</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9619</v>
+        <v>9360</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15440</v>
+        <v>16563</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>52912</v>
+        <v>51762</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>44774</v>
+        <v>45067</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>49775</v>
+        <v>50395</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>133003</v>
+        <v>133135</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>58008</v>
+        <v>58354</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>53764</v>
+        <v>52752</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>107150</v>
+        <v>107566</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25360</v>
+        <v>25054</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>37921</v>
+        <v>37922</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>85403</v>
+        <v>85503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>74851</v>
+        <v>75823</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>80428</v>
+        <v>82514</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>182144</v>
+        <v>181613</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>15531</v>
+        <v>14556</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>18286</v>
+        <v>18247</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>32720</v>
+        <v>31842</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5589</v>
+        <v>5314</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4314</v>
+        <v>4223</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>30732</v>
+        <v>30921</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>24141</v>
+        <v>23869</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25926</v>
+        <v>26082</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>68943</v>
+        <v>71267</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35718</v>
+        <v>36125</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>39482</v>
+        <v>39306</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>57358</v>
+        <v>57696</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20926</v>
+        <v>20532</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17020</v>
+        <v>16946</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>58802</v>
+        <v>58486</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>48902</v>
+        <v>49470</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>50231</v>
+        <v>49744</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>104863</v>
+        <v>106426</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6850</v>
+        <v>6661</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6632</v>
+        <v>6665</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11639</v>
+        <v>11596</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14105</v>
+        <v>14167</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>17204</v>
+        <v>17332</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>34591</v>
+        <v>35107</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>24517</v>
+        <v>24219</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>25674</v>
+        <v>27310</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>52584</v>
+        <v>52957</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>20491</v>
+        <v>20581</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>19070</v>
+        <v>20740</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>29351</v>
+        <v>28621</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>31982</v>
+        <v>32935</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>40163</v>
+        <v>40963</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>62408</v>
+        <v>62423</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>46811</v>
+        <v>49174</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>52376</v>
+        <v>52737</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>85980</v>
+        <v>85830</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>97174</v>
+        <v>97116</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>121552</v>
+        <v>121173</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>217539</v>
+        <v>222190</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>56499</v>
+        <v>54133</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>64834</v>
+        <v>66010</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>185951</v>
+        <v>184231</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>163857</v>
+        <v>161972</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>196911</v>
+        <v>198182</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>425160</v>
+        <v>423916</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>140943</v>
+        <v>142658</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>164944</v>
+        <v>166394</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>281338</v>
+        <v>285517</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>87648</v>
+        <v>87924</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>102946</v>
+        <v>103396</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>243360</v>
+        <v>244955</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>220013</v>
+        <v>217089</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>259298</v>
+        <v>256609</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>511542</v>
+        <v>510352</v>
       </c>
     </row>
     <row r="32">
